--- a/DOWNLOADS/EDITAIS/U_720305_E_900092025/U_720305_E_900092025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_720305_E_900092025/U_720305_E_900092025_master.xlsx
@@ -49,7 +49,7 @@
     <t>Veículos Teleguiados Veículos Teleguiados Tipo: Aeronave Remotamente Pilotada (Drone), Quantidade Motores: 4 Motores, Tamanho Diagonal: 350MM, Velocidade Ascensão Vertical: 6M/S, Peso Máximo: 1.375G, Características Adicionais: Cmos De 20 Megapixels De 1pol, Câmera 4k</t>
   </si>
   <si>
-    <t>KIT Aeronave teleguiada, tipo remotamente pilotada, Drone DJI Matrice 30 Thermal com Estação de Carregamento BS30 Homologado na Anatel composto de:</t>
+    <t>KIT Aeronave teleguiada, tipo remotamente pilotada, Drone DJI Matrice 30T, composto por 1x Drone DJI Matrice 30T; 1x DJI Rc Plus Remote Controller; 1x 1671 par Helices Cw; 1x 1671 par Helices Ccw; 1x USB-C Cable; 1x USB-C to USB-C Cable; 1x Carregador Case para bateria TB30; 1x BS30 Battery Station; 2x Baterias TB30; 1x Conjunto de Manuais em Português; Kit inclui 04 baterias TB30 sobressalentes, 01 bateria externa WB37 sobressalente, 04 pares de hélices de reserva, treinamento para pilotagem de drone Matrice 30T para 04 pessoas, e 03 cartões de memória micro SDXC 256GB ultra Classe 10, além de demais acessórios descritos no Termo de Referência.</t>
   </si>
   <si>
     <t>Unidade</t>
